--- a/Return attribution.xlsx
+++ b/Return attribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Risk Management\Training Material\2023.10 Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789A2C84-926E-42AB-BFDC-E3F0314E71B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E0DDD8-D8E0-4F81-8E94-4D004FC58E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49E8BFC1-333E-4F93-8BC4-42066A10F358}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{49E8BFC1-333E-4F93-8BC4-42066A10F358}"/>
   </bookViews>
   <sheets>
     <sheet name="Attribution" sheetId="2" r:id="rId1"/>
@@ -4223,8 +4223,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>109558</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Content Placeholder 7">
@@ -4351,7 +4351,7 @@
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Allocation Return where the benchmark allocation is 0% </a:t>
+                <a:t>Selection Return where the benchmark allocation is 0% </a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -4507,7 +4507,7 @@
                     </m:e>
                     <m:sub>
                       <m:r>
-                        <a:rPr lang="en-GB" i="1" kern="0">
+                        <a:rPr lang="en-GB" b="0" i="1" kern="0">
                           <a:solidFill>
                             <a:schemeClr val="accent1"/>
                           </a:solidFill>
@@ -4699,7 +4699,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="Content Placeholder 7">
@@ -4826,7 +4826,7 @@
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Allocation Return where the benchmark allocation is 0% </a:t>
+                <a:t>Selection Return where the benchmark allocation is 0% </a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -4858,7 +4858,16 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>∑▒𝑤_𝑝  〖(𝑅〗_𝑝−𝑅_𝑏</a:t>
+                <a:t>∑▒𝑤_𝑝  〖(𝑅〗_𝑝−𝑅_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" b="0" i="0" kern="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" kern="0">
@@ -5261,7 +5270,7 @@
   </sheetPr>
   <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5948,8 +5957,8 @@
   </sheetPr>
   <dimension ref="B3:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5969,7 +5978,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
